--- a/image/devicerequest.xlsx
+++ b/image/devicerequest.xlsx
@@ -1152,46 +1152,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.45703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.40234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.08984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="46.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.5703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="122.125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="46.55078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="27.73828125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="50.80078125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="93.453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="61.04296875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="28.03125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="50.38671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="93.6796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="59.3671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/devicerequest.xlsx
+++ b/image/devicerequest.xlsx
@@ -476,7 +476,7 @@
     <t>DeviceRequest.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | completed | entered-in-error | cancelled</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>The status of the request.</t>
@@ -512,7 +512,7 @@
     <t>DeviceRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | original-order | encoded | reflex-order</t>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
@@ -536,7 +536,7 @@
     <t>DeviceRequest.priority</t>
   </si>
   <si>
-    <t>Indicates how quickly the {{title}} should be addressed with respect to other requests</t>
+    <t>routine | urgent | asap | stat</t>
   </si>
   <si>
     <t>Indicates how quickly the {{title}} should be addressed with respect to other requests.</t>
@@ -1162,7 +1162,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/image/devicerequest.xlsx
+++ b/image/devicerequest.xlsx
@@ -476,7 +476,7 @@
     <t>DeviceRequest.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | completed | entered-in-error | cancelled</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>The status of the request.</t>
@@ -512,7 +512,7 @@
     <t>DeviceRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | original-order | encoded | reflex-order</t>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
@@ -536,7 +536,7 @@
     <t>DeviceRequest.priority</t>
   </si>
   <si>
-    <t>Indicates how quickly the {{title}} should be addressed with respect to other requests</t>
+    <t>routine | urgent | asap | stat</t>
   </si>
   <si>
     <t>Indicates how quickly the {{title}} should be addressed with respect to other requests.</t>
@@ -1152,46 +1152,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.45703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.40234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.08984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="46.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.5703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="122.125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="46.55078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="27.73828125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="50.80078125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="93.453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="61.04296875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="28.03125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="50.38671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="93.6796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="59.3671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/devicerequest.xlsx
+++ b/image/devicerequest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="320">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -615,10 +615,6 @@
   </si>
   <si>
     <t>DeviceRequest.parameter.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1152,46 +1148,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.45703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="122.125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="46.55078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.08984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="46.77734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.5703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="28.03125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="50.38671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="93.6796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="59.3671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="27.73828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="50.80078125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="93.453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="61.04296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3605,13 +3601,13 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3662,7 +3658,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3683,7 +3679,7 @@
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
@@ -3694,7 +3690,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3723,7 +3719,7 @@
         <v>97</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>99</v>
@@ -3776,7 +3772,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3797,7 +3793,7 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
@@ -3808,11 +3804,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3834,10 +3830,10 @@
         <v>96</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>99</v>
@@ -3892,7 +3888,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3924,7 +3920,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3947,13 +3943,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3983,7 +3979,7 @@
         <v>182</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y25" t="s" s="2">
         <v>41</v>
@@ -4004,7 +4000,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4036,7 +4032,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4059,16 +4055,16 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4118,7 +4114,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4150,7 +4146,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4173,13 +4169,13 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4230,7 +4226,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>51</v>
@@ -4245,24 +4241,24 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4285,13 +4281,13 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4342,7 +4338,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4357,24 +4353,24 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4397,13 +4393,13 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4454,7 +4450,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4469,24 +4465,24 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>244</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4509,13 +4505,13 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4566,7 +4562,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4581,24 +4577,24 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>253</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4621,13 +4617,13 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4678,7 +4674,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4693,16 +4689,16 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -4710,7 +4706,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4733,13 +4729,13 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4769,11 +4765,11 @@
         <v>182</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
       </c>
@@ -4790,7 +4786,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4805,16 +4801,16 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -4822,7 +4818,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4845,13 +4841,13 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4902,7 +4898,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4917,16 +4913,16 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AM33" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -4934,7 +4930,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4957,13 +4953,13 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4993,11 +4989,11 @@
         <v>182</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
       </c>
@@ -5014,7 +5010,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5029,24 +5025,24 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5069,13 +5065,13 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5126,7 +5122,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5141,16 +5137,16 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AM35" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5158,7 +5154,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5181,13 +5177,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5238,7 +5234,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5253,13 +5249,13 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5270,7 +5266,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5296,14 +5292,14 @@
         <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>41</v>
@@ -5352,7 +5348,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5367,13 +5363,13 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -5384,7 +5380,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5407,13 +5403,13 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5464,7 +5460,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5479,24 +5475,24 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>313</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5519,16 +5515,16 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5578,7 +5574,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5593,13 +5589,13 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
